--- a/Content Collection/Content CollectionPlanning.xlsx
+++ b/Content Collection/Content CollectionPlanning.xlsx
@@ -7,16 +7,108 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="6675" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="work progress" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial status " sheetId="2" r:id="rId2"/>
+    <sheet name="Subjects and class" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ananya</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ananya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+comfortable n ICSE/CBSE as she said</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ananya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Spoken to her. Will send short video </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ananya</author>
+  </authors>
+  <commentList>
+    <comment ref="F27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ananya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+comfortable n ICSE/CBSE as she said</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Serial No</t>
   </si>
@@ -90,13 +182,6 @@
 5. Will send him my zoom link</t>
   </si>
   <si>
-    <t xml:space="preserve">28/11/2020 at 2.00 pm IST 7.30 pm Syd </t>
-  </si>
-  <si>
-    <t>1. Will show him the presentation
-2. Will ask him if anything he wants to add</t>
-  </si>
-  <si>
     <t>Debashis Dutta</t>
   </si>
   <si>
@@ -135,13 +220,218 @@
   </si>
   <si>
     <t xml:space="preserve">Discussion in details about locating some good commerse teacher and gicve me the contact number </t>
+  </si>
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Time of app</t>
+  </si>
+  <si>
+    <t>Saima Ali</t>
+  </si>
+  <si>
+    <t>Calcutta University Group</t>
+  </si>
+  <si>
+    <t>pm sent</t>
+  </si>
+  <si>
+    <t>Shabnam Khan</t>
+  </si>
+  <si>
+    <t>Ankita Samanta</t>
+  </si>
+  <si>
+    <t>Latifur Rehman</t>
+  </si>
+  <si>
+    <t>Naman Singh</t>
+  </si>
+  <si>
+    <t>Sonia Saha</t>
+  </si>
+  <si>
+    <t>Monimahesh Kundu</t>
+  </si>
+  <si>
+    <t>Sumit Paul</t>
+  </si>
+  <si>
+    <t>Naksum Fisuot</t>
+  </si>
+  <si>
+    <t>Sharmin Hussain</t>
+  </si>
+  <si>
+    <t>Rimpa Das</t>
+  </si>
+  <si>
+    <t>Poulami Banik</t>
+  </si>
+  <si>
+    <t>Sangita Dutta</t>
+  </si>
+  <si>
+    <t>Supratik Hati</t>
+  </si>
+  <si>
+    <t>Pratik Som</t>
+  </si>
+  <si>
+    <t>Kritika Agarwal</t>
+  </si>
+  <si>
+    <t>Rimpa Saha</t>
+  </si>
+  <si>
+    <t>Shibangi Mishra</t>
+  </si>
+  <si>
+    <t>Akansha Mawandia</t>
+  </si>
+  <si>
+    <t>Ishani Kundu</t>
+  </si>
+  <si>
+    <t>91 7004564808</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sahityo</t>
+  </si>
+  <si>
+    <t>Messaged me</t>
+  </si>
+  <si>
+    <t>Mohammad Rayyan Solanki</t>
+  </si>
+  <si>
+    <t>Suvam Mandal</t>
+  </si>
+  <si>
+    <t>8334065476/6289014238</t>
+  </si>
+  <si>
+    <t>Spoken to her</t>
+  </si>
+  <si>
+    <t>Tslim Hussain</t>
+  </si>
+  <si>
+    <t>Puja Pal</t>
+  </si>
+  <si>
+    <t>Debsmita Lahiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will send a short video by Wednesday  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will talk to her on 30th Nov 9am IST 2.30pm Syd time </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 28/11/2020 at 2.00 pm IST 7.30 pm Syd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. 30/11/2020 at 2.00 pm IST 7.30 pm Syd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Will show him the presentation
+2. Will ask him if anything he wants to add
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Will show him rest of the Teacher App
+2. Google meet with Abir and Debasis da</t>
+    </r>
+  </si>
+  <si>
+    <t>Spoken with me and Anirban. Will send test video</t>
+  </si>
+  <si>
+    <t>Mercy Margaret</t>
+  </si>
+  <si>
+    <t>Spoken on 30th Nov. will send test video.</t>
+  </si>
+  <si>
+    <t>Knock for the videos</t>
+  </si>
+  <si>
+    <t>Call scheduled at 10.00 am IST 3.30 pm Syd time 1/12/2021</t>
+  </si>
+  <si>
+    <t>Call scheduled at 4.00 pm IST on 30/11/2020  but didn’t pick up</t>
+  </si>
+  <si>
+    <t>Shakeel Shaik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moupali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoken with Anirban on 29th Nov. </t>
+  </si>
+  <si>
+    <t>Will call to discuss how to start video making</t>
+  </si>
+  <si>
+    <t>spoken with Anirban.</t>
+  </si>
+  <si>
+    <t>Sakeel Khan</t>
+  </si>
+  <si>
+    <t>Spoken to him. Will send short video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +439,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -222,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -234,6 +562,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,20 +873,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="3" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="91.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -645,11 +985,11 @@
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
+      <c r="G4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -671,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -679,11 +1019,11 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -703,66 +1043,992 @@
         <v>44158</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2">
         <v>44158</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>44158</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
         <v>44158</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7278321319</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15">
+        <v>44165</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8582943989</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15">
+        <v>44165</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="8">
+        <v>44173</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9354664560</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
+        <v>44164</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44166</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1">
+        <v>484028186</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44167</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6291127269</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="12">
+        <v>7278321319</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="12">
+        <v>8582943989</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="12">
+        <v>484028186</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="12">
+        <v>9354664560</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Content Collection/Content CollectionPlanning.xlsx
+++ b/Content Collection/Content CollectionPlanning.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="6675" windowHeight="7500"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="6675" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="work progress" sheetId="1" r:id="rId1"/>
     <sheet name="Initial status " sheetId="2" r:id="rId2"/>
     <sheet name="Subjects and class" sheetId="3" r:id="rId3"/>
+    <sheet name="Approvers list" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -108,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="140">
   <si>
     <t>Serial No</t>
   </si>
@@ -425,6 +427,156 @@
   </si>
   <si>
     <t>Spoken to him. Will send short video</t>
+  </si>
+  <si>
+    <t>Paromita Ghosh</t>
+  </si>
+  <si>
+    <t>91 8584011821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoken to her. Will come in group messenger meeting </t>
+  </si>
+  <si>
+    <t>Paramita Ghosh</t>
+  </si>
+  <si>
+    <t>Moupali's reference</t>
+  </si>
+  <si>
+    <t>Spoken to her. Will join the group video call today 15/12/2020</t>
+  </si>
+  <si>
+    <t>Sl no</t>
+  </si>
+  <si>
+    <t>Sudeshna Brahma</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Sub/Subs</t>
+  </si>
+  <si>
+    <t>Nibedita Pakrashi</t>
+  </si>
+  <si>
+    <t>Chayan Das</t>
+  </si>
+  <si>
+    <t>Arpita Ghosh</t>
+  </si>
+  <si>
+    <t>Kanta Bhattacharyya</t>
+  </si>
+  <si>
+    <t>Jayati Majumdar</t>
+  </si>
+  <si>
+    <t>Dhanalaxmi Paul</t>
+  </si>
+  <si>
+    <t>Tamasi Dasgupta</t>
+  </si>
+  <si>
+    <t>call time</t>
+  </si>
+  <si>
+    <t>8.30 pm</t>
+  </si>
+  <si>
+    <t>call date</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>3.30 pm</t>
+  </si>
+  <si>
+    <t>6.30 pm</t>
+  </si>
+  <si>
+    <t>4.00 pm</t>
+  </si>
+  <si>
+    <t>2.00 pm</t>
+  </si>
+  <si>
+    <t>Text her on Sunday 20th dec to talk to the teacher</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>Teacher/approver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call 17th dec to know whether she has spoken to the headmistress </t>
+  </si>
+  <si>
+    <t>My cousin</t>
+  </si>
+  <si>
+    <t>Very interested but need to ask head mistress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very interested for teaching but have to ask head mistress </t>
+  </si>
+  <si>
+    <t>call back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily to do list </t>
+  </si>
+  <si>
+    <t>Sl no.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity </t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Group video call</t>
+  </si>
+  <si>
+    <t>Amt,Abir,Debasis da,Paramita, Ananya &amp; Anirban</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>4.45 pm</t>
+  </si>
+  <si>
+    <t>7.30 pm</t>
+  </si>
+  <si>
+    <t>She will talk to her daughter and a friend of her and with Subhra di</t>
+  </si>
+  <si>
+    <t>will call tomorrow 16th dec 2020</t>
+  </si>
+  <si>
+    <t>Will contact me if  gets any one interested</t>
   </si>
 </sst>
 </file>
@@ -466,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +634,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -573,6 +731,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +1051,7 @@
     <col min="3" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="91.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1027,28 +1191,28 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="16">
         <v>44158</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="16">
         <v>44158</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1171,24 +1335,50 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44180</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44182</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1441,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,20 +2133,38 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -1969,7 +2177,6 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2031,4 +2238,431 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44180</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44180</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2">
+        <v>44181</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44180</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44180</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2">
+        <v>44181</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44180</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>